--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siva\Pictures\A webdev\CHATGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4229976B-EFEC-455A-A956-27A2EA004C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA62716-0C45-438B-B6AA-ED2AF02E8BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
     <t>JS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Intro to web development</t>
+    <t>video - Intro to web development</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -870,6 +870,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -1006,7 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,13 +1560,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="25" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="33" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,32 +1597,20 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="25" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,14 +1802,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107788</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>134458</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -2197,17 +2204,17 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="6" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="9" ySplit="6" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" hidden="1" customWidth="1"/>
@@ -2229,29 +2236,29 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="I1" s="78"/>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
     </row>
     <row r="2" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2291,11 +2298,11 @@
       <c r="B4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="95">
         <v>45336</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="62"/>
       <c r="G4" s="63" t="s">
         <v>19</v>
@@ -2305,220 +2312,220 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="80" t="str">
+      <c r="K4" s="92" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="80" t="str">
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="80" t="str">
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="92" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="80" t="str">
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="92" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="80" t="str">
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="92" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="80" t="str">
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="92" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="82"/>
-      <c r="BA4" s="80" t="str">
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="92" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="80" t="str">
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="93"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="92" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="82"/>
-      <c r="BO4" s="80" t="str">
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="93"/>
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="94"/>
+      <c r="BO4" s="92" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="81"/>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="82"/>
-      <c r="BV4" s="80" t="str">
+      <c r="BP4" s="93"/>
+      <c r="BQ4" s="93"/>
+      <c r="BR4" s="93"/>
+      <c r="BS4" s="93"/>
+      <c r="BT4" s="93"/>
+      <c r="BU4" s="94"/>
+      <c r="BV4" s="92" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="81"/>
-      <c r="BY4" s="81"/>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="82"/>
+      <c r="BW4" s="93"/>
+      <c r="BX4" s="93"/>
+      <c r="BY4" s="93"/>
+      <c r="BZ4" s="93"/>
+      <c r="CA4" s="93"/>
+      <c r="CB4" s="94"/>
     </row>
     <row r="5" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="83">
+      <c r="K5" s="87">
         <f>K6</f>
         <v>45334</v>
       </c>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="83">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="87">
         <f>R6</f>
         <v>45341</v>
       </c>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="83">
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="87">
         <f>Y6</f>
         <v>45348</v>
       </c>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="83">
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="87">
         <f>AF6</f>
         <v>45355</v>
       </c>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="83">
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="87">
         <f>AM6</f>
         <v>45362</v>
       </c>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="83">
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="87">
         <f>AT6</f>
         <v>45369</v>
       </c>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="83">
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="87">
         <f>BA6</f>
         <v>45376</v>
       </c>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="84"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="85"/>
-      <c r="BH5" s="83">
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="87">
         <f>BH6</f>
         <v>45383</v>
       </c>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
-      <c r="BM5" s="84"/>
-      <c r="BN5" s="85"/>
-      <c r="BO5" s="83">
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="88"/>
+      <c r="BM5" s="88"/>
+      <c r="BN5" s="89"/>
+      <c r="BO5" s="87">
         <f>BO6</f>
         <v>45390</v>
       </c>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
-      <c r="BR5" s="84"/>
-      <c r="BS5" s="84"/>
-      <c r="BT5" s="84"/>
-      <c r="BU5" s="85"/>
-      <c r="BV5" s="83">
+      <c r="BP5" s="88"/>
+      <c r="BQ5" s="88"/>
+      <c r="BR5" s="88"/>
+      <c r="BS5" s="88"/>
+      <c r="BT5" s="88"/>
+      <c r="BU5" s="89"/>
+      <c r="BV5" s="87">
         <f>BV6</f>
         <v>45397</v>
       </c>
-      <c r="BW5" s="84"/>
-      <c r="BX5" s="84"/>
-      <c r="BY5" s="84"/>
-      <c r="BZ5" s="84"/>
-      <c r="CA5" s="84"/>
-      <c r="CB5" s="85"/>
+      <c r="BW5" s="88"/>
+      <c r="BX5" s="88"/>
+      <c r="BY5" s="88"/>
+      <c r="BZ5" s="88"/>
+      <c r="CA5" s="88"/>
+      <c r="CB5" s="89"/>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -3321,19 +3328,19 @@
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="96"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
@@ -3410,13 +3417,13 @@
       <c r="B11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -3496,13 +3503,13 @@
       <c r="B12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3580,13 +3587,13 @@
         <v>1.4</v>
       </c>
       <c r="B13" s="73"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -6506,14 +6513,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="23">
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="BO4:BU4"/>
     <mergeCell ref="BV4:CB4"/>
     <mergeCell ref="BO5:BU5"/>
@@ -6529,6 +6528,14 @@
     <mergeCell ref="AT5:AZ5"/>
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H46">
